--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Itga8</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.42276007371379</v>
+        <v>0.8330293333333333</v>
       </c>
       <c r="H2">
-        <v>2.42276007371379</v>
+        <v>2.499088</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.178164400954882</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1781644009548819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.22958853492604</v>
+        <v>1.518534666666667</v>
       </c>
       <c r="N2">
-        <v>1.22958853492604</v>
+        <v>4.555604</v>
       </c>
       <c r="O2">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="P2">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="Q2">
-        <v>2.978998009515044</v>
+        <v>1.264983921016889</v>
       </c>
       <c r="R2">
-        <v>2.978998009515044</v>
+        <v>11.384855289152</v>
       </c>
       <c r="S2">
-        <v>0.1073055960023796</v>
+        <v>0.01827459711272633</v>
       </c>
       <c r="T2">
-        <v>0.1073055960023796</v>
+        <v>0.01827459711272633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.42276007371379</v>
+        <v>0.8330293333333333</v>
       </c>
       <c r="H3">
-        <v>2.42276007371379</v>
+        <v>2.499088</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.178164400954882</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1781644009548819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.25155790145053</v>
+        <v>4.418558666666667</v>
       </c>
       <c r="N3">
-        <v>4.25155790145053</v>
+        <v>13.255676</v>
       </c>
       <c r="O3">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="P3">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="Q3">
-        <v>10.30050473471673</v>
+        <v>3.680788980387555</v>
       </c>
       <c r="R3">
-        <v>10.30050473471673</v>
+        <v>33.127100823488</v>
       </c>
       <c r="S3">
-        <v>0.3710313991999095</v>
+        <v>0.0531745380759249</v>
       </c>
       <c r="T3">
-        <v>0.3710313991999095</v>
+        <v>0.05317453807592488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.8330293333333333</v>
+      </c>
+      <c r="H4">
+        <v>2.499088</v>
+      </c>
+      <c r="I4">
+        <v>0.178164400954882</v>
+      </c>
+      <c r="J4">
+        <v>0.1781644009548819</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>8.867545999999999</v>
+      </c>
+      <c r="N4">
+        <v>26.602638</v>
+      </c>
+      <c r="O4">
+        <v>0.5989707550682648</v>
+      </c>
+      <c r="P4">
+        <v>0.5989707550682649</v>
+      </c>
+      <c r="Q4">
+        <v>7.386925932682665</v>
+      </c>
+      <c r="R4">
+        <v>66.48233339414399</v>
+      </c>
+      <c r="S4">
+        <v>0.1067152657662307</v>
+      </c>
+      <c r="T4">
+        <v>0.1067152657662307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3352123333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.005637</v>
+      </c>
+      <c r="I5">
+        <v>0.07169363931284718</v>
+      </c>
+      <c r="J5">
+        <v>0.07169363931284717</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.518534666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.555604</v>
+      </c>
+      <c r="O5">
+        <v>0.1025715407499064</v>
+      </c>
+      <c r="P5">
+        <v>0.1025715407499064</v>
+      </c>
+      <c r="Q5">
+        <v>0.509031548860889</v>
+      </c>
+      <c r="R5">
+        <v>4.581283939748</v>
+      </c>
+      <c r="S5">
+        <v>0.007353727046286795</v>
+      </c>
+      <c r="T5">
+        <v>0.007353727046286793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3352123333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.005637</v>
+      </c>
+      <c r="I6">
+        <v>0.07169363931284718</v>
+      </c>
+      <c r="J6">
+        <v>0.07169363931284717</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.418558666666667</v>
+      </c>
+      <c r="N6">
+        <v>13.255676</v>
+      </c>
+      <c r="O6">
+        <v>0.2984577041818288</v>
+      </c>
+      <c r="P6">
+        <v>0.2984577041818288</v>
+      </c>
+      <c r="Q6">
+        <v>1.481155360623556</v>
+      </c>
+      <c r="R6">
+        <v>13.330398245612</v>
+      </c>
+      <c r="S6">
+        <v>0.02139751899375248</v>
+      </c>
+      <c r="T6">
+        <v>0.02139751899375247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3352123333333334</v>
+      </c>
+      <c r="H7">
+        <v>1.005637</v>
+      </c>
+      <c r="I7">
+        <v>0.07169363931284718</v>
+      </c>
+      <c r="J7">
+        <v>0.07169363931284717</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.867545999999999</v>
+      </c>
+      <c r="N7">
+        <v>26.602638</v>
+      </c>
+      <c r="O7">
+        <v>0.5989707550682648</v>
+      </c>
+      <c r="P7">
+        <v>0.5989707550682649</v>
+      </c>
+      <c r="Q7">
+        <v>2.972510785600667</v>
+      </c>
+      <c r="R7">
+        <v>26.752597070406</v>
+      </c>
+      <c r="S7">
+        <v>0.04294239327280791</v>
+      </c>
+      <c r="T7">
+        <v>0.04294239327280791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.42276007371379</v>
-      </c>
-      <c r="H4">
-        <v>2.42276007371379</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>5.97760856554125</v>
-      </c>
-      <c r="N4">
-        <v>5.97760856554125</v>
-      </c>
-      <c r="O4">
-        <v>0.521663004797711</v>
-      </c>
-      <c r="P4">
-        <v>0.521663004797711</v>
-      </c>
-      <c r="Q4">
-        <v>14.4823113688829</v>
-      </c>
-      <c r="R4">
-        <v>14.4823113688829</v>
-      </c>
-      <c r="S4">
-        <v>0.521663004797711</v>
-      </c>
-      <c r="T4">
-        <v>0.521663004797711</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.50738</v>
+      </c>
+      <c r="H8">
+        <v>10.52214</v>
+      </c>
+      <c r="I8">
+        <v>0.7501419597322709</v>
+      </c>
+      <c r="J8">
+        <v>0.7501419597322708</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.518534666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.555604</v>
+      </c>
+      <c r="O8">
+        <v>0.1025715407499064</v>
+      </c>
+      <c r="P8">
+        <v>0.1025715407499064</v>
+      </c>
+      <c r="Q8">
+        <v>5.326078119173333</v>
+      </c>
+      <c r="R8">
+        <v>47.93470307256</v>
+      </c>
+      <c r="S8">
+        <v>0.07694321659089326</v>
+      </c>
+      <c r="T8">
+        <v>0.07694321659089325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.50738</v>
+      </c>
+      <c r="H9">
+        <v>10.52214</v>
+      </c>
+      <c r="I9">
+        <v>0.7501419597322709</v>
+      </c>
+      <c r="J9">
+        <v>0.7501419597322708</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.418558666666667</v>
+      </c>
+      <c r="N9">
+        <v>13.255676</v>
+      </c>
+      <c r="O9">
+        <v>0.2984577041818288</v>
+      </c>
+      <c r="P9">
+        <v>0.2984577041818288</v>
+      </c>
+      <c r="Q9">
+        <v>15.49756429629333</v>
+      </c>
+      <c r="R9">
+        <v>139.47807866664</v>
+      </c>
+      <c r="S9">
+        <v>0.2238856471121515</v>
+      </c>
+      <c r="T9">
+        <v>0.2238856471121514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.50738</v>
+      </c>
+      <c r="H10">
+        <v>10.52214</v>
+      </c>
+      <c r="I10">
+        <v>0.7501419597322709</v>
+      </c>
+      <c r="J10">
+        <v>0.7501419597322708</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.867545999999999</v>
+      </c>
+      <c r="N10">
+        <v>26.602638</v>
+      </c>
+      <c r="O10">
+        <v>0.5989707550682648</v>
+      </c>
+      <c r="P10">
+        <v>0.5989707550682649</v>
+      </c>
+      <c r="Q10">
+        <v>31.10185348948</v>
+      </c>
+      <c r="R10">
+        <v>279.91668140532</v>
+      </c>
+      <c r="S10">
+        <v>0.4493130960292262</v>
+      </c>
+      <c r="T10">
+        <v>0.4493130960292263</v>
       </c>
     </row>
   </sheetData>
